--- a/data/long_razon/P18_4-Edad-long_razon.xlsx
+++ b/data/long_razon/P18_4-Edad-long_razon.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +589,62 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-64,19%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>162,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-33,81%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-84,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>121,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-9,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-74,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>139,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-21,25%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-79,3; -47,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>39,93; 465,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-60,48; 10,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-91,58; -71,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>45,39; 267,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-37,91; 32,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-82,52; -64,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>65,95; 247,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-41,59; 5,24</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -742,47 +850,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-78,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>188,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-14,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-56,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>90,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-34,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-68,24%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>135,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-23,35%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -795,47 +933,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-89,46; -65,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>64,48; 437,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-51,08; 36,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-72,64; -35,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>21,57; 199,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-54,15; -5,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-77,18; -56,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>71,27; 261,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-47,63; 0,71</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -852,47 +1020,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-47,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-5,65%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-57,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>73,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-52,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>33,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-1,57%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1103,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-69,43; -1,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-36,76; 50,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-40,89; 46,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-70,72; -41,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>23,18; 137,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-23,1; 35,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-66,74; -30,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 71,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-21,35; 24,68</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -962,47 +1190,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-62,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>48,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>20,24%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-65,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>60,54%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-13,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-64,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>54,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1273,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-74,21; -48,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 113,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-13,19; 68,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-75,22; -50,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>17,21; 114,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-33,1; 10,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-70,95; -53,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>23,58; 93,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-18,43; 22,47</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1360,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-78,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>83,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-49,91%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>85,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>25,06%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-65,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>84,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>13,43%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1443,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-86,29; -64,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>29,68; 187,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-28,26; 40,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-64,55; -30,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>33,51; 176,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-10,52; 68,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-73,83; -54,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>40,14; 139,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-8,9; 40,83</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1530,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-65,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>49,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>6,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-79,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-18,41%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>22,37%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-73,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>5,06%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>14,97%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1613,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-79,28; -43,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-7,99; 148,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-32,77; 63,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-88,15; -65,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-46,46; 22,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-14,46; 80,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-81,24; -62,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-22,88; 46,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-12,41; 53,12</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1700,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-65,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>67,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-5,08%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-66,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>56,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-2,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-66,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>61,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-3,94%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1345,62 +1783,99 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-71,95; -56,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>38,67; 107,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-19,31; 13,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-72,09; -61,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>32,89; 80,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-15,42; 10,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-70,53; -61,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>43,23; 84,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-13,16; 6,71</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="M1:Q1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/long_razon/P18_4-Edad-long_razon.xlsx
+++ b/data/long_razon/P18_4-Edad-long_razon.xlsx
@@ -683,21 +683,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr"/>
-      <c r="D4" s="5" t="inlineStr"/>
-      <c r="E4" s="5" t="inlineStr"/>
-      <c r="F4" s="5" t="inlineStr"/>
-      <c r="G4" s="5" t="inlineStr"/>
-      <c r="H4" s="5" t="inlineStr"/>
-      <c r="I4" s="5" t="inlineStr"/>
-      <c r="J4" s="5" t="inlineStr"/>
-      <c r="K4" s="5" t="inlineStr"/>
-      <c r="L4" s="5" t="inlineStr"/>
-      <c r="M4" s="5" t="inlineStr"/>
-      <c r="N4" s="5" t="inlineStr"/>
-      <c r="O4" s="5" t="inlineStr"/>
-      <c r="P4" s="5" t="inlineStr"/>
-      <c r="Q4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="n">
+        <v>-0.6569585328990182</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>2.401667644701094</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-0.3870843421307293</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-0.4965217386639771</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>0.1605756042590729</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-0.8482386409148588</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>0.9561385171476342</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>-0.09900788633048276</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>-0.4429886878533587</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <v>-0.3644407902833324</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <v>-0.755990450736024</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <v>1.480141900191129</v>
+      </c>
+      <c r="O4" s="5" t="n">
+        <v>-0.2429999684004675</v>
+      </c>
+      <c r="P4" s="5" t="n">
+        <v>-0.4650525956672475</v>
+      </c>
+      <c r="Q4" s="5" t="n">
+        <v>-0.08607494165047951</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
@@ -706,21 +736,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr"/>
-      <c r="D5" s="5" t="inlineStr"/>
-      <c r="E5" s="5" t="inlineStr"/>
-      <c r="F5" s="5" t="inlineStr"/>
-      <c r="G5" s="5" t="inlineStr"/>
-      <c r="H5" s="5" t="inlineStr"/>
-      <c r="I5" s="5" t="inlineStr"/>
-      <c r="J5" s="5" t="inlineStr"/>
-      <c r="K5" s="5" t="inlineStr"/>
-      <c r="L5" s="5" t="inlineStr"/>
-      <c r="M5" s="5" t="inlineStr"/>
-      <c r="N5" s="5" t="inlineStr"/>
-      <c r="O5" s="5" t="inlineStr"/>
-      <c r="P5" s="5" t="inlineStr"/>
-      <c r="Q5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="n">
+        <v>-0.7803400778907896</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>0.869180245763834</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.6705241560264974</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.7931241699520872</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.4284341957382237</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-0.9231358868684649</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>0.2718917772629458</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>-0.4009027057518417</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>-0.6599178400161033</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>-0.6902026769753509</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>-0.8367268901195736</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>0.6968184661289017</v>
+      </c>
+      <c r="O5" s="5" t="n">
+        <v>-0.4426573186112416</v>
+      </c>
+      <c r="P5" s="5" t="n">
+        <v>-0.6543120748246972</v>
+      </c>
+      <c r="Q5" s="5" t="n">
+        <v>-0.4628294609609514</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -729,21 +789,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr"/>
-      <c r="D6" s="5" t="inlineStr"/>
-      <c r="E6" s="5" t="inlineStr"/>
-      <c r="F6" s="5" t="inlineStr"/>
-      <c r="G6" s="5" t="inlineStr"/>
-      <c r="H6" s="5" t="inlineStr"/>
-      <c r="I6" s="5" t="inlineStr"/>
-      <c r="J6" s="5" t="inlineStr"/>
-      <c r="K6" s="5" t="inlineStr"/>
-      <c r="L6" s="5" t="inlineStr"/>
-      <c r="M6" s="5" t="inlineStr"/>
-      <c r="N6" s="5" t="inlineStr"/>
-      <c r="O6" s="5" t="inlineStr"/>
-      <c r="P6" s="5" t="inlineStr"/>
-      <c r="Q6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="n">
+        <v>-0.461471715922633</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>6.683788180810023</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0.07319468005135632</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>0.0442785362597129</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>1.417746279206076</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>-0.7341901131256821</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>2.085114961858992</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>0.3145590108857691</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>-0.1496971993937841</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>0.2843632066473412</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>-0.653124465727409</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>2.580972212370642</v>
+      </c>
+      <c r="O6" s="5" t="n">
+        <v>0.04448071912753661</v>
+      </c>
+      <c r="P6" s="5" t="n">
+        <v>-0.1976618252628279</v>
+      </c>
+      <c r="Q6" s="5" t="n">
+        <v>0.5500211572766255</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -756,21 +846,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr"/>
-      <c r="D7" s="5" t="inlineStr"/>
-      <c r="E7" s="5" t="inlineStr"/>
-      <c r="F7" s="5" t="inlineStr"/>
-      <c r="G7" s="5" t="inlineStr"/>
-      <c r="H7" s="5" t="inlineStr"/>
-      <c r="I7" s="5" t="inlineStr"/>
-      <c r="J7" s="5" t="inlineStr"/>
-      <c r="K7" s="5" t="inlineStr"/>
-      <c r="L7" s="5" t="inlineStr"/>
-      <c r="M7" s="5" t="inlineStr"/>
-      <c r="N7" s="5" t="inlineStr"/>
-      <c r="O7" s="5" t="inlineStr"/>
-      <c r="P7" s="5" t="inlineStr"/>
-      <c r="Q7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="n">
+        <v>-0.7887884274047832</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>1.85525022983668</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-0.161469569104106</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-0.2447516659585011</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>0.1105302779367992</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>-0.5766274876497139</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>0.9673623304249743</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>-0.3658469123082906</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>-0.3014785357796919</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>-0.2253902642570169</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>-0.6870867065068362</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>1.373652844622822</v>
+      </c>
+      <c r="O7" s="5" t="n">
+        <v>-0.2553678851191906</v>
+      </c>
+      <c r="P7" s="5" t="n">
+        <v>-0.2717348559854169</v>
+      </c>
+      <c r="Q7" s="5" t="n">
+        <v>-0.07272779342466949</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
@@ -779,21 +899,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr"/>
-      <c r="D8" s="5" t="inlineStr"/>
-      <c r="E8" s="5" t="inlineStr"/>
-      <c r="F8" s="5" t="inlineStr"/>
-      <c r="G8" s="5" t="inlineStr"/>
-      <c r="H8" s="5" t="inlineStr"/>
-      <c r="I8" s="5" t="inlineStr"/>
-      <c r="J8" s="5" t="inlineStr"/>
-      <c r="K8" s="5" t="inlineStr"/>
-      <c r="L8" s="5" t="inlineStr"/>
-      <c r="M8" s="5" t="inlineStr"/>
-      <c r="N8" s="5" t="inlineStr"/>
-      <c r="O8" s="5" t="inlineStr"/>
-      <c r="P8" s="5" t="inlineStr"/>
-      <c r="Q8" s="5" t="inlineStr"/>
+      <c r="C8" s="5" t="n">
+        <v>-0.8881041789724688</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>0.7584208286574565</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.4991540851276078</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.6173108316953113</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-0.5780933823323946</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.7249661318969632</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>0.2299872036446643</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>-0.5642008829176024</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>-0.5945827312002155</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>-0.5401113295253667</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>-0.7811482510863073</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <v>0.6651658141818485</v>
+      </c>
+      <c r="O8" s="5" t="n">
+        <v>-0.4634477190636597</v>
+      </c>
+      <c r="P8" s="5" t="n">
+        <v>-0.5267771285470134</v>
+      </c>
+      <c r="Q8" s="5" t="n">
+        <v>-0.4263847418802051</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
@@ -802,21 +952,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr"/>
-      <c r="D9" s="5" t="inlineStr"/>
-      <c r="E9" s="5" t="inlineStr"/>
-      <c r="F9" s="5" t="inlineStr"/>
-      <c r="G9" s="5" t="inlineStr"/>
-      <c r="H9" s="5" t="inlineStr"/>
-      <c r="I9" s="5" t="inlineStr"/>
-      <c r="J9" s="5" t="inlineStr"/>
-      <c r="K9" s="5" t="inlineStr"/>
-      <c r="L9" s="5" t="inlineStr"/>
-      <c r="M9" s="5" t="inlineStr"/>
-      <c r="N9" s="5" t="inlineStr"/>
-      <c r="O9" s="5" t="inlineStr"/>
-      <c r="P9" s="5" t="inlineStr"/>
-      <c r="Q9" s="5" t="inlineStr"/>
+      <c r="C9" s="5" t="n">
+        <v>-0.6284761193904216</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>4.439443857460756</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.3144293634587607</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.3894729873949364</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>1.639142380943027</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>-0.3549696092233427</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>1.987729374041449</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>-0.09259688311297203</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>0.1224434981558603</v>
+      </c>
+      <c r="L9" s="5" t="n">
+        <v>0.2791497351431667</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <v>-0.5524827350577439</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>2.529009812620237</v>
+      </c>
+      <c r="O9" s="5" t="n">
+        <v>-0.01806423947957516</v>
+      </c>
+      <c r="P9" s="5" t="n">
+        <v>0.09474127644728172</v>
+      </c>
+      <c r="Q9" s="5" t="n">
+        <v>0.652341798335826</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -829,21 +1009,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr"/>
-      <c r="D10" s="5" t="inlineStr"/>
-      <c r="E10" s="5" t="inlineStr"/>
-      <c r="F10" s="5" t="inlineStr"/>
-      <c r="G10" s="5" t="inlineStr"/>
-      <c r="H10" s="5" t="inlineStr"/>
-      <c r="I10" s="5" t="inlineStr"/>
-      <c r="J10" s="5" t="inlineStr"/>
-      <c r="K10" s="5" t="inlineStr"/>
-      <c r="L10" s="5" t="inlineStr"/>
-      <c r="M10" s="5" t="inlineStr"/>
-      <c r="N10" s="5" t="inlineStr"/>
-      <c r="O10" s="5" t="inlineStr"/>
-      <c r="P10" s="5" t="inlineStr"/>
-      <c r="Q10" s="5" t="inlineStr"/>
+      <c r="C10" s="5" t="n">
+        <v>-0.5928548089460267</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.02768284402872402</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-0.01302101843645112</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.5084189076006224</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>-0.0430006900954004</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>-0.5745153937563073</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>0.7651434836754093</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>0.0009547773119186044</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>-0.2989673089903155</v>
+      </c>
+      <c r="L10" s="5" t="n">
+        <v>-0.06763545101083152</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <v>-0.5842873011706027</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <v>0.3173093423151352</v>
+      </c>
+      <c r="O10" s="5" t="n">
+        <v>-0.005700172206712752</v>
+      </c>
+      <c r="P10" s="5" t="n">
+        <v>-0.00769903450960784</v>
+      </c>
+      <c r="Q10" s="5" t="n">
+        <v>-0.05482872363599883</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
@@ -852,21 +1062,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr"/>
-      <c r="D11" s="5" t="inlineStr"/>
-      <c r="E11" s="5" t="inlineStr"/>
-      <c r="F11" s="5" t="inlineStr"/>
-      <c r="G11" s="5" t="inlineStr"/>
-      <c r="H11" s="5" t="inlineStr"/>
-      <c r="I11" s="5" t="inlineStr"/>
-      <c r="J11" s="5" t="inlineStr"/>
-      <c r="K11" s="5" t="inlineStr"/>
-      <c r="L11" s="5" t="inlineStr"/>
-      <c r="M11" s="5" t="inlineStr"/>
-      <c r="N11" s="5" t="inlineStr"/>
-      <c r="O11" s="5" t="inlineStr"/>
-      <c r="P11" s="5" t="inlineStr"/>
-      <c r="Q11" s="5" t="inlineStr"/>
+      <c r="C11" s="5" t="n">
+        <v>-0.7514418770095952</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.369351817611801</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.3630383381488984</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.012438021357314</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-0.4401951202362749</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-0.6937665570107443</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>0.2888570080700875</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>-0.2262195420447964</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>-0.4677481873819805</v>
+      </c>
+      <c r="L11" s="5" t="n">
+        <v>-0.4261864436142514</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <v>-0.6964037529812476</v>
+      </c>
+      <c r="N11" s="5" t="n">
+        <v>-0.008113190995619319</v>
+      </c>
+      <c r="O11" s="5" t="n">
+        <v>-0.214864386863085</v>
+      </c>
+      <c r="P11" s="5" t="n">
+        <v>-0.2261308066791261</v>
+      </c>
+      <c r="Q11" s="5" t="n">
+        <v>-0.3217453564893099</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
@@ -875,21 +1115,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr"/>
-      <c r="D12" s="5" t="inlineStr"/>
-      <c r="E12" s="5" t="inlineStr"/>
-      <c r="F12" s="5" t="inlineStr"/>
-      <c r="G12" s="5" t="inlineStr"/>
-      <c r="H12" s="5" t="inlineStr"/>
-      <c r="I12" s="5" t="inlineStr"/>
-      <c r="J12" s="5" t="inlineStr"/>
-      <c r="K12" s="5" t="inlineStr"/>
-      <c r="L12" s="5" t="inlineStr"/>
-      <c r="M12" s="5" t="inlineStr"/>
-      <c r="N12" s="5" t="inlineStr"/>
-      <c r="O12" s="5" t="inlineStr"/>
-      <c r="P12" s="5" t="inlineStr"/>
-      <c r="Q12" s="5" t="inlineStr"/>
+      <c r="C12" s="5" t="n">
+        <v>-0.3181838458042535</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0.4914014981925787</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0.4971171486378236</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>1.407543546933351</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>0.5992088003384213</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>-0.4029685355443082</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>1.402858169428397</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>0.3143898509044291</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>-0.05212194902853311</v>
+      </c>
+      <c r="L12" s="5" t="n">
+        <v>0.4647242142956224</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <v>-0.4335121614208141</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <v>0.7456712279623893</v>
+      </c>
+      <c r="O12" s="5" t="n">
+        <v>0.2589125891925208</v>
+      </c>
+      <c r="P12" s="5" t="n">
+        <v>0.3274551911278584</v>
+      </c>
+      <c r="Q12" s="5" t="n">
+        <v>0.3397368918257572</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -902,21 +1172,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr"/>
-      <c r="D13" s="5" t="inlineStr"/>
-      <c r="E13" s="5" t="inlineStr"/>
-      <c r="F13" s="5" t="inlineStr"/>
-      <c r="G13" s="5" t="inlineStr"/>
-      <c r="H13" s="5" t="inlineStr"/>
-      <c r="I13" s="5" t="inlineStr"/>
-      <c r="J13" s="5" t="inlineStr"/>
-      <c r="K13" s="5" t="inlineStr"/>
-      <c r="L13" s="5" t="inlineStr"/>
-      <c r="M13" s="5" t="inlineStr"/>
-      <c r="N13" s="5" t="inlineStr"/>
-      <c r="O13" s="5" t="inlineStr"/>
-      <c r="P13" s="5" t="inlineStr"/>
-      <c r="Q13" s="5" t="inlineStr"/>
+      <c r="C13" s="5" t="n">
+        <v>-0.6232735090049074</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.4732202184076775</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.1731926798074706</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-0.1342884759524921</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>-0.1191468043273081</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>-0.642265241414868</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>0.614556778635294</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>-0.1386049391600037</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>0.03678457735829088</v>
+      </c>
+      <c r="L13" s="5" t="n">
+        <v>-0.2250421641184412</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <v>-0.633252292430311</v>
+      </c>
+      <c r="N13" s="5" t="n">
+        <v>0.5472615314366301</v>
+      </c>
+      <c r="O13" s="5" t="n">
+        <v>-0.007082525685961239</v>
+      </c>
+      <c r="P13" s="5" t="n">
+        <v>-0.05278623385750562</v>
+      </c>
+      <c r="Q13" s="5" t="n">
+        <v>-0.170087254419574</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
@@ -925,21 +1225,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr"/>
-      <c r="D14" s="5" t="inlineStr"/>
-      <c r="E14" s="5" t="inlineStr"/>
-      <c r="F14" s="5" t="inlineStr"/>
-      <c r="G14" s="5" t="inlineStr"/>
-      <c r="H14" s="5" t="inlineStr"/>
-      <c r="I14" s="5" t="inlineStr"/>
-      <c r="J14" s="5" t="inlineStr"/>
-      <c r="K14" s="5" t="inlineStr"/>
-      <c r="L14" s="5" t="inlineStr"/>
-      <c r="M14" s="5" t="inlineStr"/>
-      <c r="N14" s="5" t="inlineStr"/>
-      <c r="O14" s="5" t="inlineStr"/>
-      <c r="P14" s="5" t="inlineStr"/>
-      <c r="Q14" s="5" t="inlineStr"/>
+      <c r="C14" s="5" t="n">
+        <v>-0.7415717314121221</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>0.008006035367519549</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.1624716822151353</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.4242889420630302</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-0.4562172648364901</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-0.7415366275174501</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>0.2011458197398571</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>-0.3334000698415687</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>-0.2324463783559038</v>
+      </c>
+      <c r="L14" s="5" t="n">
+        <v>-0.4923897581710041</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <v>-0.7182814135785354</v>
+      </c>
+      <c r="N14" s="5" t="n">
+        <v>0.2320487917172731</v>
+      </c>
+      <c r="O14" s="5" t="n">
+        <v>-0.1859425450658672</v>
+      </c>
+      <c r="P14" s="5" t="n">
+        <v>-0.2739429353654793</v>
+      </c>
+      <c r="Q14" s="5" t="n">
+        <v>-0.4173176096814703</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
@@ -948,21 +1278,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr"/>
-      <c r="D15" s="5" t="inlineStr"/>
-      <c r="E15" s="5" t="inlineStr"/>
-      <c r="F15" s="5" t="inlineStr"/>
-      <c r="G15" s="5" t="inlineStr"/>
-      <c r="H15" s="5" t="inlineStr"/>
-      <c r="I15" s="5" t="inlineStr"/>
-      <c r="J15" s="5" t="inlineStr"/>
-      <c r="K15" s="5" t="inlineStr"/>
-      <c r="L15" s="5" t="inlineStr"/>
-      <c r="M15" s="5" t="inlineStr"/>
-      <c r="N15" s="5" t="inlineStr"/>
-      <c r="O15" s="5" t="inlineStr"/>
-      <c r="P15" s="5" t="inlineStr"/>
-      <c r="Q15" s="5" t="inlineStr"/>
+      <c r="C15" s="5" t="n">
+        <v>-0.4868741997928796</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>1.114245545038357</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.6147310328761151</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.5241691089141265</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0.3489999297397809</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>-0.5039010717502385</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>1.219635263222986</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>0.1109633303828182</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>0.4187694386273902</v>
+      </c>
+      <c r="L15" s="5" t="n">
+        <v>0.1720537769286102</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <v>-0.5324938315599955</v>
+      </c>
+      <c r="N15" s="5" t="n">
+        <v>0.961018188496066</v>
+      </c>
+      <c r="O15" s="5" t="n">
+        <v>0.2320935267583729</v>
+      </c>
+      <c r="P15" s="5" t="n">
+        <v>0.3113526589279431</v>
+      </c>
+      <c r="Q15" s="5" t="n">
+        <v>0.09676536306595483</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -975,21 +1335,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="5" t="inlineStr"/>
-      <c r="D16" s="5" t="inlineStr"/>
-      <c r="E16" s="5" t="inlineStr"/>
-      <c r="F16" s="5" t="inlineStr"/>
-      <c r="G16" s="5" t="inlineStr"/>
-      <c r="H16" s="5" t="inlineStr"/>
-      <c r="I16" s="5" t="inlineStr"/>
-      <c r="J16" s="5" t="inlineStr"/>
-      <c r="K16" s="5" t="inlineStr"/>
-      <c r="L16" s="5" t="inlineStr"/>
-      <c r="M16" s="5" t="inlineStr"/>
-      <c r="N16" s="5" t="inlineStr"/>
-      <c r="O16" s="5" t="inlineStr"/>
-      <c r="P16" s="5" t="inlineStr"/>
-      <c r="Q16" s="5" t="inlineStr"/>
+      <c r="C16" s="5" t="n">
+        <v>-0.7912808762394872</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>0.7861848376248907</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-0.004195713934976955</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>-0.2391377951666924</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>0.4261937674759561</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>-0.4733412297912687</v>
+      </c>
+      <c r="I16" s="5" t="n">
+        <v>0.9103042754191547</v>
+      </c>
+      <c r="J16" s="5" t="n">
+        <v>0.2342309468630847</v>
+      </c>
+      <c r="K16" s="5" t="n">
+        <v>-0.5758886541077614</v>
+      </c>
+      <c r="L16" s="5" t="n">
+        <v>-0.1717721283796996</v>
+      </c>
+      <c r="M16" s="5" t="n">
+        <v>-0.6468434718461203</v>
+      </c>
+      <c r="N16" s="5" t="n">
+        <v>0.8499229076397504</v>
+      </c>
+      <c r="O16" s="5" t="n">
+        <v>0.1159154370908186</v>
+      </c>
+      <c r="P16" s="5" t="n">
+        <v>-0.4268349228620168</v>
+      </c>
+      <c r="Q16" s="5" t="n">
+        <v>0.07532593031070245</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
@@ -998,21 +1388,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C17" s="5" t="inlineStr"/>
-      <c r="D17" s="5" t="inlineStr"/>
-      <c r="E17" s="5" t="inlineStr"/>
-      <c r="F17" s="5" t="inlineStr"/>
-      <c r="G17" s="5" t="inlineStr"/>
-      <c r="H17" s="5" t="inlineStr"/>
-      <c r="I17" s="5" t="inlineStr"/>
-      <c r="J17" s="5" t="inlineStr"/>
-      <c r="K17" s="5" t="inlineStr"/>
-      <c r="L17" s="5" t="inlineStr"/>
-      <c r="M17" s="5" t="inlineStr"/>
-      <c r="N17" s="5" t="inlineStr"/>
-      <c r="O17" s="5" t="inlineStr"/>
-      <c r="P17" s="5" t="inlineStr"/>
-      <c r="Q17" s="5" t="inlineStr"/>
+      <c r="C17" s="5" t="n">
+        <v>-0.8814487304604516</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>0.2275171474233144</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-0.2971562393520049</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-0.515419558193247</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>-0.02562889344040644</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>-0.6305371984710511</v>
+      </c>
+      <c r="I17" s="5" t="n">
+        <v>0.3197894374488282</v>
+      </c>
+      <c r="J17" s="5" t="n">
+        <v>-0.1295728705650241</v>
+      </c>
+      <c r="K17" s="5" t="n">
+        <v>-0.7326574995825664</v>
+      </c>
+      <c r="L17" s="5" t="n">
+        <v>-0.4728282475185827</v>
+      </c>
+      <c r="M17" s="5" t="n">
+        <v>-0.7378620904343661</v>
+      </c>
+      <c r="N17" s="5" t="n">
+        <v>0.4330779562829565</v>
+      </c>
+      <c r="O17" s="5" t="n">
+        <v>-0.1216613822225157</v>
+      </c>
+      <c r="P17" s="5" t="n">
+        <v>-0.5870994195079146</v>
+      </c>
+      <c r="Q17" s="5" t="n">
+        <v>-0.199384153376387</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
@@ -1021,21 +1441,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C18" s="5" t="inlineStr"/>
-      <c r="D18" s="5" t="inlineStr"/>
-      <c r="E18" s="5" t="inlineStr"/>
-      <c r="F18" s="5" t="inlineStr"/>
-      <c r="G18" s="5" t="inlineStr"/>
-      <c r="H18" s="5" t="inlineStr"/>
-      <c r="I18" s="5" t="inlineStr"/>
-      <c r="J18" s="5" t="inlineStr"/>
-      <c r="K18" s="5" t="inlineStr"/>
-      <c r="L18" s="5" t="inlineStr"/>
-      <c r="M18" s="5" t="inlineStr"/>
-      <c r="N18" s="5" t="inlineStr"/>
-      <c r="O18" s="5" t="inlineStr"/>
-      <c r="P18" s="5" t="inlineStr"/>
-      <c r="Q18" s="5" t="inlineStr"/>
+      <c r="C18" s="5" t="n">
+        <v>-0.6671140050470421</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>1.694271417832447</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>0.3916307101509127</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>0.1814376679316968</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>1.316749024501733</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>-0.2662503030157273</v>
+      </c>
+      <c r="I18" s="5" t="n">
+        <v>1.725279613006407</v>
+      </c>
+      <c r="J18" s="5" t="n">
+        <v>0.7271389330458788</v>
+      </c>
+      <c r="K18" s="5" t="n">
+        <v>-0.3402087496237983</v>
+      </c>
+      <c r="L18" s="5" t="n">
+        <v>0.1877565026938846</v>
+      </c>
+      <c r="M18" s="5" t="n">
+        <v>-0.5403742955468499</v>
+      </c>
+      <c r="N18" s="5" t="n">
+        <v>1.419562062980825</v>
+      </c>
+      <c r="O18" s="5" t="n">
+        <v>0.3788772067332367</v>
+      </c>
+      <c r="P18" s="5" t="n">
+        <v>-0.201335782716213</v>
+      </c>
+      <c r="Q18" s="5" t="n">
+        <v>0.4659466139752081</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1048,21 +1498,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C19" s="5" t="inlineStr"/>
-      <c r="D19" s="5" t="inlineStr"/>
-      <c r="E19" s="5" t="inlineStr"/>
-      <c r="F19" s="5" t="inlineStr"/>
-      <c r="G19" s="5" t="inlineStr"/>
-      <c r="H19" s="5" t="inlineStr"/>
-      <c r="I19" s="5" t="inlineStr"/>
-      <c r="J19" s="5" t="inlineStr"/>
-      <c r="K19" s="5" t="inlineStr"/>
-      <c r="L19" s="5" t="inlineStr"/>
-      <c r="M19" s="5" t="inlineStr"/>
-      <c r="N19" s="5" t="inlineStr"/>
-      <c r="O19" s="5" t="inlineStr"/>
-      <c r="P19" s="5" t="inlineStr"/>
-      <c r="Q19" s="5" t="inlineStr"/>
+      <c r="C19" s="5" t="n">
+        <v>-0.6772791801477033</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>0.4968778323226322</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>0.08595980017534215</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>0.02176059610418935</v>
+      </c>
+      <c r="G19" s="5" t="n">
+        <v>-0.4737008599239337</v>
+      </c>
+      <c r="H19" s="5" t="n">
+        <v>-0.7703549590573532</v>
+      </c>
+      <c r="I19" s="5" t="n">
+        <v>-0.1400138151719189</v>
+      </c>
+      <c r="J19" s="5" t="n">
+        <v>0.2142355638247695</v>
+      </c>
+      <c r="K19" s="5" t="n">
+        <v>-0.166296478021445</v>
+      </c>
+      <c r="L19" s="5" t="n">
+        <v>-0.5572534146203211</v>
+      </c>
+      <c r="M19" s="5" t="n">
+        <v>-0.7303801476332707</v>
+      </c>
+      <c r="N19" s="5" t="n">
+        <v>0.07912008982933003</v>
+      </c>
+      <c r="O19" s="5" t="n">
+        <v>0.1572064634644459</v>
+      </c>
+      <c r="P19" s="5" t="n">
+        <v>-0.09845537631414675</v>
+      </c>
+      <c r="Q19" s="5" t="n">
+        <v>-0.5231585563551995</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
@@ -1071,21 +1551,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C20" s="5" t="inlineStr"/>
-      <c r="D20" s="5" t="inlineStr"/>
-      <c r="E20" s="5" t="inlineStr"/>
-      <c r="F20" s="5" t="inlineStr"/>
-      <c r="G20" s="5" t="inlineStr"/>
-      <c r="H20" s="5" t="inlineStr"/>
-      <c r="I20" s="5" t="inlineStr"/>
-      <c r="J20" s="5" t="inlineStr"/>
-      <c r="K20" s="5" t="inlineStr"/>
-      <c r="L20" s="5" t="inlineStr"/>
-      <c r="M20" s="5" t="inlineStr"/>
-      <c r="N20" s="5" t="inlineStr"/>
-      <c r="O20" s="5" t="inlineStr"/>
-      <c r="P20" s="5" t="inlineStr"/>
-      <c r="Q20" s="5" t="inlineStr"/>
+      <c r="C20" s="5" t="n">
+        <v>-0.8023859129082893</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-0.1182240415060739</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>-0.3091910064973198</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>-0.4005023988872052</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>-0.7250701832686702</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>-0.8727648589289674</v>
+      </c>
+      <c r="I20" s="5" t="n">
+        <v>-0.4137190090659532</v>
+      </c>
+      <c r="J20" s="5" t="n">
+        <v>-0.1559625055838347</v>
+      </c>
+      <c r="K20" s="5" t="n">
+        <v>-0.4955263477978744</v>
+      </c>
+      <c r="L20" s="5" t="n">
+        <v>-0.812965932168476</v>
+      </c>
+      <c r="M20" s="5" t="n">
+        <v>-0.811384656071828</v>
+      </c>
+      <c r="N20" s="5" t="n">
+        <v>-0.2334066753606543</v>
+      </c>
+      <c r="O20" s="5" t="n">
+        <v>-0.1212643328391101</v>
+      </c>
+      <c r="P20" s="5" t="n">
+        <v>-0.3566604417036177</v>
+      </c>
+      <c r="Q20" s="5" t="n">
+        <v>-0.7296815831180925</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
@@ -1094,21 +1604,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C21" s="5" t="inlineStr"/>
-      <c r="D21" s="5" t="inlineStr"/>
-      <c r="E21" s="5" t="inlineStr"/>
-      <c r="F21" s="5" t="inlineStr"/>
-      <c r="G21" s="5" t="inlineStr"/>
-      <c r="H21" s="5" t="inlineStr"/>
-      <c r="I21" s="5" t="inlineStr"/>
-      <c r="J21" s="5" t="inlineStr"/>
-      <c r="K21" s="5" t="inlineStr"/>
-      <c r="L21" s="5" t="inlineStr"/>
-      <c r="M21" s="5" t="inlineStr"/>
-      <c r="N21" s="5" t="inlineStr"/>
-      <c r="O21" s="5" t="inlineStr"/>
-      <c r="P21" s="5" t="inlineStr"/>
-      <c r="Q21" s="5" t="inlineStr"/>
+      <c r="C21" s="5" t="n">
+        <v>-0.4796675245828613</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>1.571828106338197</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>0.6428198893906109</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>0.7503536059363407</v>
+      </c>
+      <c r="G21" s="5" t="n">
+        <v>0.1645300066700178</v>
+      </c>
+      <c r="H21" s="5" t="n">
+        <v>-0.6135031789559591</v>
+      </c>
+      <c r="I21" s="5" t="n">
+        <v>0.3073417619991028</v>
+      </c>
+      <c r="J21" s="5" t="n">
+        <v>0.7742333762099698</v>
+      </c>
+      <c r="K21" s="5" t="n">
+        <v>0.2295928294930478</v>
+      </c>
+      <c r="L21" s="5" t="n">
+        <v>-0.007342502638219522</v>
+      </c>
+      <c r="M21" s="5" t="n">
+        <v>-0.6212334208444686</v>
+      </c>
+      <c r="N21" s="5" t="n">
+        <v>0.4740938950516019</v>
+      </c>
+      <c r="O21" s="5" t="n">
+        <v>0.5463671023823192</v>
+      </c>
+      <c r="P21" s="5" t="n">
+        <v>0.2612426132989423</v>
+      </c>
+      <c r="Q21" s="5" t="n">
+        <v>-0.1968722963533894</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1121,21 +1661,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C22" s="5" t="inlineStr"/>
-      <c r="D22" s="5" t="inlineStr"/>
-      <c r="E22" s="5" t="inlineStr"/>
-      <c r="F22" s="5" t="inlineStr"/>
-      <c r="G22" s="5" t="inlineStr"/>
-      <c r="H22" s="5" t="inlineStr"/>
-      <c r="I22" s="5" t="inlineStr"/>
-      <c r="J22" s="5" t="inlineStr"/>
-      <c r="K22" s="5" t="inlineStr"/>
-      <c r="L22" s="5" t="inlineStr"/>
-      <c r="M22" s="5" t="inlineStr"/>
-      <c r="N22" s="5" t="inlineStr"/>
-      <c r="O22" s="5" t="inlineStr"/>
-      <c r="P22" s="5" t="inlineStr"/>
-      <c r="Q22" s="5" t="inlineStr"/>
+      <c r="C22" s="5" t="n">
+        <v>-0.6828880386951756</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.6962192394203502</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-0.06304086956872924</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>-0.09783245032560285</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>-0.01710895393026904</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>-0.6617180280005655</v>
+      </c>
+      <c r="I22" s="5" t="n">
+        <v>0.5706478647650173</v>
+      </c>
+      <c r="J22" s="5" t="n">
+        <v>-0.04041202839661277</v>
+      </c>
+      <c r="K22" s="5" t="n">
+        <v>-0.2923867208377424</v>
+      </c>
+      <c r="L22" s="5" t="n">
+        <v>-0.2822893311296856</v>
+      </c>
+      <c r="M22" s="5" t="n">
+        <v>-0.6722019807136511</v>
+      </c>
+      <c r="N22" s="5" t="n">
+        <v>0.6279592589441115</v>
+      </c>
+      <c r="O22" s="5" t="n">
+        <v>-0.05125996028330613</v>
+      </c>
+      <c r="P22" s="5" t="n">
+        <v>-0.2082716652184021</v>
+      </c>
+      <c r="Q22" s="5" t="n">
+        <v>-0.1570131836288313</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
@@ -1144,21 +1714,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C23" s="5" t="inlineStr"/>
-      <c r="D23" s="5" t="inlineStr"/>
-      <c r="E23" s="5" t="inlineStr"/>
-      <c r="F23" s="5" t="inlineStr"/>
-      <c r="G23" s="5" t="inlineStr"/>
-      <c r="H23" s="5" t="inlineStr"/>
-      <c r="I23" s="5" t="inlineStr"/>
-      <c r="J23" s="5" t="inlineStr"/>
-      <c r="K23" s="5" t="inlineStr"/>
-      <c r="L23" s="5" t="inlineStr"/>
-      <c r="M23" s="5" t="inlineStr"/>
-      <c r="N23" s="5" t="inlineStr"/>
-      <c r="O23" s="5" t="inlineStr"/>
-      <c r="P23" s="5" t="inlineStr"/>
-      <c r="Q23" s="5" t="inlineStr"/>
+      <c r="C23" s="5" t="n">
+        <v>-0.7474167267935995</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.3776462749267891</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-0.211683407808356</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>-0.2676430286437934</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>-0.2300036362187894</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>-0.7108066044063234</v>
+      </c>
+      <c r="I23" s="5" t="n">
+        <v>0.373177216579797</v>
+      </c>
+      <c r="J23" s="5" t="n">
+        <v>-0.1559192303780396</v>
+      </c>
+      <c r="K23" s="5" t="n">
+        <v>-0.4058761060938295</v>
+      </c>
+      <c r="L23" s="5" t="n">
+        <v>-0.4263803563135066</v>
+      </c>
+      <c r="M23" s="5" t="n">
+        <v>-0.7120163450545128</v>
+      </c>
+      <c r="N23" s="5" t="n">
+        <v>0.4436432609782496</v>
+      </c>
+      <c r="O23" s="5" t="n">
+        <v>-0.1549551276753181</v>
+      </c>
+      <c r="P23" s="5" t="n">
+        <v>-0.3094736467524304</v>
+      </c>
+      <c r="Q23" s="5" t="n">
+        <v>-0.2769182078409574</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
@@ -1167,21 +1767,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C24" s="5" t="inlineStr"/>
-      <c r="D24" s="5" t="inlineStr"/>
-      <c r="E24" s="5" t="inlineStr"/>
-      <c r="F24" s="5" t="inlineStr"/>
-      <c r="G24" s="5" t="inlineStr"/>
-      <c r="H24" s="5" t="inlineStr"/>
-      <c r="I24" s="5" t="inlineStr"/>
-      <c r="J24" s="5" t="inlineStr"/>
-      <c r="K24" s="5" t="inlineStr"/>
-      <c r="L24" s="5" t="inlineStr"/>
-      <c r="M24" s="5" t="inlineStr"/>
-      <c r="N24" s="5" t="inlineStr"/>
-      <c r="O24" s="5" t="inlineStr"/>
-      <c r="P24" s="5" t="inlineStr"/>
-      <c r="Q24" s="5" t="inlineStr"/>
+      <c r="C24" s="5" t="n">
+        <v>-0.6170948382988068</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>1.074311737647494</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.1348124842136897</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.1370659224675524</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.2868237387693613</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>-0.5996389113722516</v>
+      </c>
+      <c r="I24" s="5" t="n">
+        <v>0.8608930837392031</v>
+      </c>
+      <c r="J24" s="5" t="n">
+        <v>0.09210189026545705</v>
+      </c>
+      <c r="K24" s="5" t="n">
+        <v>-0.1660969304533284</v>
+      </c>
+      <c r="L24" s="5" t="n">
+        <v>-0.1095970220083487</v>
+      </c>
+      <c r="M24" s="5" t="n">
+        <v>-0.633372338272241</v>
+      </c>
+      <c r="N24" s="5" t="n">
+        <v>0.8510215992681746</v>
+      </c>
+      <c r="O24" s="5" t="n">
+        <v>0.04787994757063639</v>
+      </c>
+      <c r="P24" s="5" t="n">
+        <v>-0.086795174005633</v>
+      </c>
+      <c r="Q24" s="5" t="n">
+        <v>0.007952949902305925</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
